--- a/data/trans_dic/P36$huevo-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01362062147981918</v>
+        <v>0.01323034968339463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02775187801795704</v>
+        <v>0.02832599238649712</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02544006067905143</v>
+        <v>0.02503743654648596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006880335862027602</v>
+        <v>0.006851602392576603</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01216979172089027</v>
+        <v>0.01240381036580914</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02941688084621054</v>
+        <v>0.02895991765162636</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01128277869298078</v>
+        <v>0.01164373148916859</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02057791190193431</v>
+        <v>0.02113273069419188</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03046763015644317</v>
+        <v>0.0312092189150915</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0321408671367143</v>
+        <v>0.03298218768282168</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0535058242302236</v>
+        <v>0.05335527262995644</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0530997139399946</v>
+        <v>0.05222704441591717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01937758638173714</v>
+        <v>0.01927536560893257</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0287934436158097</v>
+        <v>0.02772362925017086</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05626768248591557</v>
+        <v>0.05495413508254327</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02192337462124311</v>
+        <v>0.02351222485886682</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03444613660942757</v>
+        <v>0.03522464901400121</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05145878620668459</v>
+        <v>0.05032868512670081</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03618118439820887</v>
+        <v>0.03664254659521915</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03869947914147923</v>
+        <v>0.03764180741831056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07187465771599337</v>
+        <v>0.07224017592059519</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02177282337905856</v>
+        <v>0.02188719830810092</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02094503847655788</v>
+        <v>0.02082935654191464</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05809874515353833</v>
+        <v>0.05772214793313934</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03148418410622963</v>
+        <v>0.03168072375099439</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03283868450061175</v>
+        <v>0.0324159264396857</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06812778183170001</v>
+        <v>0.06858923647151775</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05654228782357613</v>
+        <v>0.05818359322155068</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05750418794846631</v>
+        <v>0.05716756287809328</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09608598679878239</v>
+        <v>0.09707651291436309</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03930035642262255</v>
+        <v>0.03889186937187199</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0372579471764365</v>
+        <v>0.03766954832819654</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08108117144852298</v>
+        <v>0.08131986316854861</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04562104066298021</v>
+        <v>0.04548731896932088</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04589792947912296</v>
+        <v>0.04485019005781106</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08418505246864291</v>
+        <v>0.08552050558801459</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01995250848907842</v>
+        <v>0.0183839223735532</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01429352682578343</v>
+        <v>0.01446824124888941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06562305527191563</v>
+        <v>0.06485346317444733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007517946658137818</v>
+        <v>0.006795310703341073</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006158119947489778</v>
+        <v>0.006187514000454346</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04235817249047026</v>
+        <v>0.04256406461839944</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01620095137921719</v>
+        <v>0.01641593392407548</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01247638000994081</v>
+        <v>0.01237912478130653</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06009203069103977</v>
+        <v>0.05841073396884159</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05176902647515287</v>
+        <v>0.05521657229550597</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04264729339881395</v>
+        <v>0.04275595544446813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1153381571070458</v>
+        <v>0.1181891761906255</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03554361027033302</v>
+        <v>0.03299469622457436</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03557849393356395</v>
+        <v>0.03340644745309842</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.084890876706168</v>
+        <v>0.08474973889148645</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03771769846753453</v>
+        <v>0.03770251607290408</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03250315658627317</v>
+        <v>0.03338164992756103</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09319039272448601</v>
+        <v>0.09267098298132452</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0295233840722469</v>
+        <v>0.02952055424123693</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0354838140529559</v>
+        <v>0.03568195739011992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06518082717518169</v>
+        <v>0.0648293754471225</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01624361351810361</v>
+        <v>0.0164447883492774</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0184860983125807</v>
+        <v>0.01831510526498013</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0514652462440745</v>
+        <v>0.05231525061147424</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02456034988470497</v>
+        <v>0.02436705490352887</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02816374104508188</v>
+        <v>0.0281291459105843</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06020550156261628</v>
+        <v>0.06023946799904638</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04357757609869251</v>
+        <v>0.04363749292203995</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04942362458949105</v>
+        <v>0.05015664072102482</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0827073491948047</v>
+        <v>0.0828971310808817</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02635154569324247</v>
+        <v>0.02674437373605118</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02979113634745696</v>
+        <v>0.02947513547483459</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06791409784983729</v>
+        <v>0.06960134402524903</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03297139635314197</v>
+        <v>0.03282689570591636</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03752625069404688</v>
+        <v>0.03736132413101</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07256475226402544</v>
+        <v>0.07251358216821133</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13999</v>
+        <v>13597</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26993</v>
+        <v>27551</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19145</v>
+        <v>18842</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9035</v>
+        <v>8997</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16256</v>
+        <v>16569</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>29225</v>
+        <v>28771</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>26412</v>
+        <v>27257</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>47502</v>
+        <v>48783</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>53197</v>
+        <v>54492</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33033</v>
+        <v>33897</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>52042</v>
+        <v>51896</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39961</v>
+        <v>39304</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>25445</v>
+        <v>25311</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>38461</v>
+        <v>37032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>55900</v>
+        <v>54595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>51320</v>
+        <v>55039</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79516</v>
+        <v>81313</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>89848</v>
+        <v>87875</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>61234</v>
+        <v>62015</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>75893</v>
+        <v>73819</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>149082</v>
+        <v>149841</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>34524</v>
+        <v>34705</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>36756</v>
+        <v>36553</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>115398</v>
+        <v>114650</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>103207</v>
+        <v>103851</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>122028</v>
+        <v>120457</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>276629</v>
+        <v>278503</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>95694</v>
+        <v>98472</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>112771</v>
+        <v>112111</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>199301</v>
+        <v>201356</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62316</v>
+        <v>61668</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>65383</v>
+        <v>66105</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>161047</v>
+        <v>161521</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>149548</v>
+        <v>149110</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>170555</v>
+        <v>166662</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>341828</v>
+        <v>347251</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10967</v>
+        <v>10105</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6863</v>
+        <v>6947</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35888</v>
+        <v>35467</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3582</v>
+        <v>3237</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2817</v>
+        <v>2831</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>23261</v>
+        <v>23374</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16623</v>
+        <v>16844</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11698</v>
+        <v>11607</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>65862</v>
+        <v>64020</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28454</v>
+        <v>30349</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20477</v>
+        <v>20529</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>63077</v>
+        <v>64636</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16933</v>
+        <v>15719</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16276</v>
+        <v>15282</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>46617</v>
+        <v>46539</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38700</v>
+        <v>38685</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30475</v>
+        <v>31299</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>102139</v>
+        <v>101570</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>96536</v>
+        <v>96527</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>121137</v>
+        <v>121814</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>219897</v>
+        <v>218711</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54825</v>
+        <v>55504</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>65591</v>
+        <v>64984</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>181613</v>
+        <v>184613</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>163203</v>
+        <v>161919</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>196076</v>
+        <v>195835</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>415568</v>
+        <v>415803</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>142491</v>
+        <v>142687</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>168726</v>
+        <v>171229</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>279025</v>
+        <v>279666</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>88941</v>
+        <v>90267</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>105702</v>
+        <v>104581</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>239659</v>
+        <v>245613</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>219095</v>
+        <v>218134</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>261257</v>
+        <v>260109</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>500878</v>
+        <v>500525</v>
       </c>
     </row>
     <row r="20">
